--- a/data/results_icsfy_100_rev.xlsx
+++ b/data/results_icsfy_100_rev.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33640" windowHeight="18380" tabRatio="674" activeTab="5"/>
+    <workbookView xWindow="6780" yWindow="14740" windowWidth="39680" windowHeight="18380" tabRatio="674" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="resultsPivot" sheetId="5" r:id="rId1"/>
@@ -16,8 +16,8 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId7"/>
-    <pivotCache cacheId="9" r:id="rId8"/>
+    <pivotCache cacheId="10" r:id="rId7"/>
+    <pivotCache cacheId="11" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6695" uniqueCount="1746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6699" uniqueCount="1750">
   <si>
     <t>task_id</t>
   </si>
@@ -5266,6 +5266,18 @@
   </si>
   <si>
     <t>mode_not_irop</t>
+  </si>
+  <si>
+    <t>stdev</t>
+  </si>
+  <si>
+    <t>count0</t>
+  </si>
+  <si>
+    <t>count1</t>
+  </si>
+  <si>
+    <t>count2</t>
   </si>
 </sst>
 </file>
@@ -5436,6 +5448,869 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$Q$2:$Q$121</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>1.0625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.846153846153846</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.846153846153846</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.923076923076923</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.461538461538462</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.846153846153846</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.928571428571429</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.230769230769231</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.846153846153846</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.923076923076923</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.785714285714286</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.76923076923077</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.076923076923077</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.923076923076923</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.923076923076923</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.846153846153846</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.923076923076923</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.0769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.230769230769231</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.928571428571429</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.0769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.533333333333333</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.0769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.071428571428571</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.076923076923077</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.0769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.846153846153846</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.0714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.0666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.0769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.0714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.923076923076923</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.923076923076923</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$R$2:$R$121</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>0.277350098112615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.506369683541834</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.375533808099405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.554700196225229</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.480384461415261</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.408248290463863</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.480384461415261</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.577350269189626</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.554700196225229</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.277350098112615</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.375533808099405</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.480384461415261</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.277350098112615</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.277350098112615</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.375533808099405</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.480384461415261</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.800640769025436</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.277350098112614</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.480384461415261</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.554700196225229</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.375533808099405</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.375533808099405</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.518874521662771</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.375533808099405</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.277350098112615</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.277350098112615</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.493548116792825</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.506369683541833</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.438529009653515</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.375533808099405</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.506369683541833</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.277350098112614</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.277350098112615</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.688737231721195</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.277350098112615</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.438529009653514</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.438529009653514</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.277350098112615</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.506369683541834</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.506369683541833</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.506369683541834</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.630425171956115</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.493548116792825</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.480384461415261</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.277350098112614</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.277350098112614</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.375533808099405</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.493548116792825</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.277350098112615</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.506369683541833</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.375533808099405</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.630425171956115</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.640512615220348</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.375533808099405</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.277350098112615</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.480384461415261</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.277350098112615</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.725011052081984</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.554700196225229</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.438529009653515</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.277350098112614</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.277350098112615</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.660225291773525</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.277350098112615</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.577350269189626</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.688737231721195</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.554700196225229</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.493548116792825</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.277350098112615</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.375533808099405</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.640512615220348</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.375533808099405</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.518874521662771</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.277350098112615</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.277350098112615</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.277350098112615</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.599144689515278</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.277350098112615</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.640512615220348</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.277350098112614</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2120566952"/>
+        <c:axId val="2028143944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2120566952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2028143944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2028143944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2120566952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33143,7 +34018,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:P125" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -33727,7 +34602,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:B125" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -82761,10 +83636,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X122"/>
+  <dimension ref="A1:AB122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="W123" sqref="W123"/>
+    <sheetView tabSelected="1" topLeftCell="B80" workbookViewId="0">
+      <selection activeCell="B32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -82772,7 +83647,7 @@
     <col min="17" max="17" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:28">
       <c r="A1" s="3" t="s">
         <v>1735</v>
       </c>
@@ -82824,6 +83699,9 @@
       <c r="Q1" s="10" t="s">
         <v>1732</v>
       </c>
+      <c r="R1" s="14" t="s">
+        <v>1746</v>
+      </c>
       <c r="S1" s="14" t="s">
         <v>1742</v>
       </c>
@@ -82836,8 +83714,17 @@
       <c r="V1" s="14" t="s">
         <v>1745</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Z1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -82891,6 +83778,10 @@
       <c r="Q2" s="11">
         <v>1.0625</v>
       </c>
+      <c r="R2" s="13">
+        <f>STDEV(D2:P2)</f>
+        <v>0.27735009811261457</v>
+      </c>
       <c r="S2" s="13">
         <f>AVERAGE(D1:P2)</f>
         <v>1.0769230769230769</v>
@@ -82915,8 +83806,20 @@
         <f>U2-V2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Z2">
+        <f>COUNTIF(D2:P2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f>COUNTIF(D2:P2,1)</f>
+        <v>12</v>
+      </c>
+      <c r="AB2">
+        <f>COUNTIF(D2:P2,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -82970,32 +83873,48 @@
       <c r="Q3" s="11">
         <v>0</v>
       </c>
+      <c r="R3" s="13">
+        <f t="shared" ref="R3:R66" si="0">STDEV(D3:P3)</f>
+        <v>0</v>
+      </c>
       <c r="S3" s="13">
-        <f t="shared" ref="S3:S66" si="0">AVERAGE(D2:P3)</f>
+        <f t="shared" ref="S3:S66" si="1">AVERAGE(D2:P3)</f>
         <v>0.53846153846153844</v>
       </c>
       <c r="T3" s="16">
-        <f t="shared" ref="T3:T66" si="1">MODE(D2:P3)</f>
+        <f t="shared" ref="T3:T66" si="2">MODE(D2:P3)</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U66" si="2">MODE(F3,J3,M3,P3,N3)</f>
+        <f t="shared" ref="U3:U66" si="3">MODE(F3,J3,M3,P3,N3)</f>
         <v>0</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V66" si="3">MODE(D3,E3,G3,I3,H3,K3,L3,O3)</f>
+        <f t="shared" ref="V3:V66" si="4">MODE(D3,E3,G3,I3,H3,K3,L3,O3)</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W66" si="4">IF(U3=V3,1,0)</f>
+        <f t="shared" ref="W3:W66" si="5">IF(U3=V3,1,0)</f>
         <v>1</v>
       </c>
       <c r="X3" s="16">
-        <f t="shared" ref="X3:X66" si="5">U3-V3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <f t="shared" ref="X3:X66" si="6">U3-V3</f>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z66" si="7">COUNTIF(D3:P3,0)</f>
+        <v>13</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA66" si="8">COUNTIF(D3:P3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB66" si="9">COUNTIF(D3:P3,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -83049,32 +83968,48 @@
       <c r="Q4" s="11">
         <v>0</v>
       </c>
+      <c r="R4" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S4" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T4" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X4" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -83128,32 +84063,48 @@
       <c r="Q5" s="11">
         <v>1.5714285714285714</v>
       </c>
+      <c r="R5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.50636968354183354</v>
+      </c>
       <c r="S5" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.80769230769230771</v>
       </c>
       <c r="T5" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X5" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Z5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -83207,32 +84158,48 @@
       <c r="Q6" s="11">
         <v>0</v>
       </c>
+      <c r="R6" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S6" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.80769230769230771</v>
       </c>
       <c r="T6" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X6" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -83286,32 +84253,48 @@
       <c r="Q7" s="11">
         <v>0</v>
       </c>
+      <c r="R7" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T7" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X7" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -83365,32 +84348,48 @@
       <c r="Q8" s="11">
         <v>0</v>
       </c>
+      <c r="R8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S8" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T8" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X8" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -83444,32 +84443,48 @@
       <c r="Q9" s="11">
         <v>0</v>
       </c>
+      <c r="R9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S9" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T9" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X9" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -83523,32 +84538,48 @@
       <c r="Q10" s="11">
         <v>0</v>
       </c>
+      <c r="R10" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S10" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T10" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X10" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -83602,32 +84633,48 @@
       <c r="Q11" s="11">
         <v>0.15384615384615385</v>
       </c>
+      <c r="R11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.3755338080994054</v>
+      </c>
       <c r="S11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="T11" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X11" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -83681,32 +84728,48 @@
       <c r="Q12" s="11">
         <v>0.84615384615384615</v>
       </c>
+      <c r="R12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.55470019622522904</v>
+      </c>
       <c r="S12" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="T12" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X12" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -83760,32 +84823,48 @@
       <c r="Q13" s="11">
         <v>1.3076923076923077</v>
       </c>
+      <c r="R13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.48038446141526148</v>
+      </c>
       <c r="S13" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0769230769230769</v>
       </c>
       <c r="T13" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X13" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Z13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -83839,32 +84918,48 @@
       <c r="Q14" s="11">
         <v>0</v>
       </c>
+      <c r="R14" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.65384615384615385</v>
       </c>
       <c r="T14" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X14" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -83918,32 +85013,48 @@
       <c r="Q15" s="11">
         <v>0</v>
       </c>
+      <c r="R15" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S15" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T15" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X15" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -83997,32 +85108,48 @@
       <c r="Q16" s="11">
         <v>2</v>
       </c>
+      <c r="R16" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S16" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T16" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="V16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X16" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -84076,32 +85203,48 @@
       <c r="Q17" s="11">
         <v>1</v>
       </c>
+      <c r="R17" s="13">
+        <f t="shared" si="0"/>
+        <v>0.40824829046386302</v>
+      </c>
       <c r="S17" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="T17" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X17" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -84155,32 +85298,48 @@
       <c r="Q18" s="11">
         <v>1.6923076923076923</v>
       </c>
+      <c r="R18" s="13">
+        <f t="shared" si="0"/>
+        <v>0.48038446141526114</v>
+      </c>
       <c r="S18" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3461538461538463</v>
       </c>
       <c r="T18" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="V18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X18" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -84234,32 +85393,48 @@
       <c r="Q19" s="11">
         <v>1</v>
       </c>
+      <c r="R19" s="13">
+        <f t="shared" si="0"/>
+        <v>0.57735026918962573</v>
+      </c>
       <c r="S19" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3461538461538463</v>
       </c>
       <c r="T19" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X19" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -84313,32 +85488,48 @@
       <c r="Q20" s="11">
         <v>1.1538461538461537</v>
       </c>
+      <c r="R20" s="13">
+        <f t="shared" si="0"/>
+        <v>0.55470019622522915</v>
+      </c>
       <c r="S20" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0769230769230769</v>
       </c>
       <c r="T20" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X20" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -84392,32 +85583,48 @@
       <c r="Q21" s="11">
         <v>7.6923076923076927E-2</v>
       </c>
+      <c r="R21" s="13">
+        <f t="shared" si="0"/>
+        <v>0.27735009811261457</v>
+      </c>
       <c r="S21" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.61538461538461542</v>
       </c>
       <c r="T21" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X21" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -84471,32 +85678,48 @@
       <c r="Q22" s="11">
         <v>1.8461538461538463</v>
       </c>
+      <c r="R22" s="13">
+        <f t="shared" si="0"/>
+        <v>0.37553380809940551</v>
+      </c>
       <c r="S22" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.96153846153846156</v>
       </c>
       <c r="T22" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="V22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X22" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -84550,32 +85773,48 @@
       <c r="Q23" s="11">
         <v>1.3076923076923077</v>
       </c>
+      <c r="R23" s="13">
+        <f t="shared" si="0"/>
+        <v>0.48038446141526148</v>
+      </c>
       <c r="S23" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5769230769230769</v>
       </c>
       <c r="T23" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X23" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -84629,32 +85868,48 @@
       <c r="Q24" s="11">
         <v>7.6923076923076927E-2</v>
       </c>
+      <c r="R24" s="13">
+        <f t="shared" si="0"/>
+        <v>0.27735009811261457</v>
+      </c>
       <c r="S24" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69230769230769229</v>
       </c>
       <c r="T24" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X24" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -84708,32 +85963,48 @@
       <c r="Q25" s="11">
         <v>0</v>
       </c>
+      <c r="R25" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S25" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="T25" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X25" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -84787,32 +86058,48 @@
       <c r="Q26" s="11">
         <v>0</v>
       </c>
+      <c r="R26" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S26" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T26" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X26" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -84866,32 +86153,48 @@
       <c r="Q27" s="11">
         <v>2</v>
       </c>
+      <c r="R27" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S27" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T27" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="V27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X27" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -84945,32 +86248,48 @@
       <c r="Q28" s="11">
         <v>7.6923076923076927E-2</v>
       </c>
+      <c r="R28" s="13">
+        <f t="shared" si="0"/>
+        <v>0.27735009811261457</v>
+      </c>
       <c r="S28" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0384615384615385</v>
       </c>
       <c r="T28" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X28" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -85024,32 +86343,48 @@
       <c r="Q29" s="11">
         <v>1.1538461538461537</v>
       </c>
+      <c r="R29" s="13">
+        <f t="shared" si="0"/>
+        <v>0.37553380809940551</v>
+      </c>
       <c r="S29" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.61538461538461542</v>
       </c>
       <c r="T29" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X29" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -85103,32 +86438,48 @@
       <c r="Q30" s="11">
         <v>0</v>
       </c>
+      <c r="R30" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S30" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57692307692307687</v>
       </c>
       <c r="T30" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X30" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -85182,32 +86533,48 @@
       <c r="Q31" s="11">
         <v>1.6923076923076923</v>
       </c>
+      <c r="R31" s="13">
+        <f t="shared" si="0"/>
+        <v>0.48038446141526114</v>
+      </c>
       <c r="S31" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.84615384615384615</v>
       </c>
       <c r="T31" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="V31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X31" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -85261,32 +86628,48 @@
       <c r="Q32" s="11">
         <v>1.1538461538461537</v>
       </c>
+      <c r="R32" s="13">
+        <f t="shared" si="0"/>
+        <v>0.80064076902543568</v>
+      </c>
       <c r="S32" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4230769230769231</v>
       </c>
       <c r="T32" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="V32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X32" s="16">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -85340,32 +86723,48 @@
       <c r="Q33" s="11">
         <v>1.9230769230769231</v>
       </c>
+      <c r="R33" s="13">
+        <f t="shared" si="0"/>
+        <v>0.27735009811261407</v>
+      </c>
       <c r="S33" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5384615384615385</v>
       </c>
       <c r="T33" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="V33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X33" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -85419,32 +86818,48 @@
       <c r="Q34" s="11">
         <v>1.6923076923076923</v>
       </c>
+      <c r="R34" s="13">
+        <f t="shared" si="0"/>
+        <v>0.48038446141526114</v>
+      </c>
       <c r="S34" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8076923076923077</v>
       </c>
       <c r="T34" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="V34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X34" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -85498,32 +86913,48 @@
       <c r="Q35" s="11">
         <v>0.15384615384615385</v>
       </c>
+      <c r="R35" s="13">
+        <f t="shared" si="0"/>
+        <v>0.55470019622522915</v>
+      </c>
       <c r="S35" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="T35" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X35" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -85577,32 +87008,48 @@
       <c r="Q36" s="11">
         <v>1.1538461538461537</v>
       </c>
+      <c r="R36" s="13">
+        <f t="shared" si="0"/>
+        <v>0.37553380809940551</v>
+      </c>
       <c r="S36" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.65384615384615385</v>
       </c>
       <c r="T36" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X36" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -85656,32 +87103,48 @@
       <c r="Q37" s="11">
         <v>0.15384615384615385</v>
       </c>
+      <c r="R37" s="13">
+        <f t="shared" si="0"/>
+        <v>0.3755338080994054</v>
+      </c>
       <c r="S37" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.65384615384615385</v>
       </c>
       <c r="T37" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X37" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -85735,32 +87198,48 @@
       <c r="Q38" s="11">
         <v>0.46153846153846156</v>
       </c>
+      <c r="R38" s="13">
+        <f t="shared" si="0"/>
+        <v>0.51887452166277082</v>
+      </c>
       <c r="S38" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="T38" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X38" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -85814,32 +87293,48 @@
       <c r="Q39" s="11">
         <v>0</v>
       </c>
+      <c r="R39" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S39" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23076923076923078</v>
       </c>
       <c r="T39" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X39" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -85893,32 +87388,48 @@
       <c r="Q40" s="11">
         <v>0.84615384615384615</v>
       </c>
+      <c r="R40" s="13">
+        <f t="shared" si="0"/>
+        <v>0.37553380809940529</v>
+      </c>
       <c r="S40" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.42307692307692307</v>
       </c>
       <c r="T40" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X40" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -85972,32 +87483,48 @@
       <c r="Q41" s="11">
         <v>0</v>
       </c>
+      <c r="R41" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S41" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.42307692307692307</v>
       </c>
       <c r="T41" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X41" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -86051,32 +87578,48 @@
       <c r="Q42" s="11">
         <v>7.6923076923076927E-2</v>
       </c>
+      <c r="R42" s="13">
+        <f t="shared" si="0"/>
+        <v>0.27735009811261457</v>
+      </c>
       <c r="S42" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="T42" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X42" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -86130,32 +87673,48 @@
       <c r="Q43" s="11">
         <v>7.6923076923076927E-2</v>
       </c>
+      <c r="R43" s="13">
+        <f t="shared" si="0"/>
+        <v>0.27735009811261457</v>
+      </c>
       <c r="S43" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="T43" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X43" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -86209,32 +87768,48 @@
       <c r="Q44" s="11">
         <v>0</v>
       </c>
+      <c r="R44" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S44" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="T44" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X44" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -86288,32 +87863,48 @@
       <c r="Q45" s="11">
         <v>0.9285714285714286</v>
       </c>
+      <c r="R45" s="13">
+        <f t="shared" si="0"/>
+        <v>0.49354811679282456</v>
+      </c>
       <c r="S45" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.46153846153846156</v>
       </c>
       <c r="T45" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X45" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -86367,32 +87958,48 @@
       <c r="Q46" s="11">
         <v>0.38461538461538464</v>
       </c>
+      <c r="R46" s="13">
+        <f t="shared" si="0"/>
+        <v>0.50636968354183332</v>
+      </c>
       <c r="S46" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.65384615384615385</v>
       </c>
       <c r="T46" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X46" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -86446,32 +88053,48 @@
       <c r="Q47" s="11">
         <v>0.23076923076923078</v>
       </c>
+      <c r="R47" s="13">
+        <f t="shared" si="0"/>
+        <v>0.4385290096535146</v>
+      </c>
       <c r="S47" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="T47" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X47" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -86525,32 +88148,48 @@
       <c r="Q48" s="11">
         <v>0.84615384615384615</v>
       </c>
+      <c r="R48" s="13">
+        <f t="shared" si="0"/>
+        <v>0.37553380809940529</v>
+      </c>
       <c r="S48" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.53846153846153844</v>
       </c>
       <c r="T48" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X48" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -86604,32 +88243,48 @@
       <c r="Q49" s="11">
         <v>0.38461538461538464</v>
       </c>
+      <c r="R49" s="13">
+        <f t="shared" si="0"/>
+        <v>0.50636968354183332</v>
+      </c>
       <c r="S49" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.61538461538461542</v>
       </c>
       <c r="T49" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X49" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -86683,32 +88338,48 @@
       <c r="Q50" s="11">
         <v>1.9230769230769231</v>
       </c>
+      <c r="R50" s="13">
+        <f t="shared" si="0"/>
+        <v>0.27735009811261407</v>
+      </c>
       <c r="S50" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1538461538461537</v>
       </c>
       <c r="T50" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="V50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X50" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" s="4">
         <v>49</v>
       </c>
@@ -86762,32 +88433,48 @@
       <c r="Q51" s="11">
         <v>7.1428571428571425E-2</v>
       </c>
+      <c r="R51" s="13">
+        <f t="shared" si="0"/>
+        <v>0.27735009811261457</v>
+      </c>
       <c r="S51" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T51" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X51" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" s="4">
         <v>50</v>
       </c>
@@ -86841,32 +88528,48 @@
       <c r="Q52" s="11">
         <v>0</v>
       </c>
+      <c r="R52" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S52" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="T52" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X52" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -86920,32 +88623,48 @@
       <c r="Q53" s="11">
         <v>0</v>
       </c>
+      <c r="R53" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S53" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T53" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X53" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -86999,32 +88718,48 @@
       <c r="Q54" s="11">
         <v>0</v>
       </c>
+      <c r="R54" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S54" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T54" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X54" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" s="4">
         <v>53</v>
       </c>
@@ -87078,32 +88813,48 @@
       <c r="Q55" s="11">
         <v>1.1538461538461537</v>
       </c>
+      <c r="R55" s="13">
+        <f t="shared" si="0"/>
+        <v>0.68873723172119461</v>
+      </c>
       <c r="S55" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57692307692307687</v>
       </c>
       <c r="T55" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X55" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" s="4">
         <v>54</v>
       </c>
@@ -87157,32 +88908,48 @@
       <c r="Q56" s="11">
         <v>7.6923076923076927E-2</v>
       </c>
+      <c r="R56" s="13">
+        <f t="shared" si="0"/>
+        <v>0.27735009811261457</v>
+      </c>
       <c r="S56" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.61538461538461542</v>
       </c>
       <c r="T56" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X56" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" s="4">
         <v>55</v>
       </c>
@@ -87236,32 +89003,48 @@
       <c r="Q57" s="11">
         <v>0</v>
       </c>
+      <c r="R57" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S57" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="T57" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X57" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" s="4">
         <v>56</v>
       </c>
@@ -87315,32 +89098,48 @@
       <c r="Q58" s="11">
         <v>1.7857142857142858</v>
       </c>
+      <c r="R58" s="13">
+        <f t="shared" si="0"/>
+        <v>0.43852900965351449</v>
+      </c>
       <c r="S58" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.88461538461538458</v>
       </c>
       <c r="T58" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="V58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X58" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" s="4">
         <v>57</v>
       </c>
@@ -87394,32 +89193,48 @@
       <c r="Q59" s="11">
         <v>0</v>
       </c>
+      <c r="R59" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S59" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.88461538461538458</v>
       </c>
       <c r="T59" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X59" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60" s="4">
         <v>58</v>
       </c>
@@ -87473,32 +89288,48 @@
       <c r="Q60" s="11">
         <v>1.7692307692307692</v>
       </c>
+      <c r="R60" s="13">
+        <f t="shared" si="0"/>
+        <v>0.43852900965351449</v>
+      </c>
       <c r="S60" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.88461538461538458</v>
       </c>
       <c r="T60" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="V60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X60" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61" s="4">
         <v>59</v>
       </c>
@@ -87552,32 +89383,48 @@
       <c r="Q61" s="11">
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="R61" s="13">
+        <f t="shared" si="0"/>
+        <v>0.27735009811261457</v>
+      </c>
       <c r="S61" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="T61" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X61" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AB61">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" s="4">
         <v>60</v>
       </c>
@@ -87631,32 +89478,48 @@
       <c r="Q62" s="11">
         <v>0</v>
       </c>
+      <c r="R62" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S62" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="T62" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X62" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63" s="4">
         <v>61</v>
       </c>
@@ -87710,32 +89573,48 @@
       <c r="Q63" s="11">
         <v>0</v>
       </c>
+      <c r="R63" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S63" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T63" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X63" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" s="4">
         <v>62</v>
       </c>
@@ -87789,32 +89668,48 @@
       <c r="Q64" s="11">
         <v>0</v>
       </c>
+      <c r="R64" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S64" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T64" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X64" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65" s="4">
         <v>63</v>
       </c>
@@ -87868,32 +89763,48 @@
       <c r="Q65" s="11">
         <v>1.6153846153846154</v>
       </c>
+      <c r="R65" s="13">
+        <f t="shared" si="0"/>
+        <v>0.50636968354183354</v>
+      </c>
       <c r="S65" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.80769230769230771</v>
       </c>
       <c r="T65" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="V65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X65" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AB65">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66" s="4">
         <v>64</v>
       </c>
@@ -87947,32 +89858,48 @@
       <c r="Q66" s="11">
         <v>1.3846153846153846</v>
       </c>
+      <c r="R66" s="13">
+        <f t="shared" si="0"/>
+        <v>0.50636968354183332</v>
+      </c>
       <c r="S66" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="T66" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X66" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="AB66">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67" s="4">
         <v>65</v>
       </c>
@@ -88026,32 +89953,48 @@
       <c r="Q67" s="11">
         <v>1.6153846153846154</v>
       </c>
+      <c r="R67" s="13">
+        <f t="shared" ref="R67:R122" si="10">STDEV(D67:P67)</f>
+        <v>0.50636968354183354</v>
+      </c>
       <c r="S67" s="13">
-        <f t="shared" ref="S67:S121" si="6">AVERAGE(D66:P67)</f>
+        <f t="shared" ref="S67:S121" si="11">AVERAGE(D66:P67)</f>
         <v>1.5</v>
       </c>
       <c r="T67" s="16">
-        <f t="shared" ref="T67:T121" si="7">MODE(D66:P67)</f>
+        <f t="shared" ref="T67:T121" si="12">MODE(D66:P67)</f>
         <v>1</v>
       </c>
       <c r="U67">
-        <f t="shared" ref="U67:U121" si="8">MODE(F67,J67,M67,P67,N67)</f>
+        <f t="shared" ref="U67:U121" si="13">MODE(F67,J67,M67,P67,N67)</f>
         <v>2</v>
       </c>
       <c r="V67">
-        <f t="shared" ref="V67:V121" si="9">MODE(D67,E67,G67,I67,H67,K67,L67,O67)</f>
+        <f t="shared" ref="V67:V121" si="14">MODE(D67,E67,G67,I67,H67,K67,L67,O67)</f>
         <v>2</v>
       </c>
       <c r="W67">
-        <f t="shared" ref="W67:W121" si="10">IF(U67=V67,1,0)</f>
+        <f t="shared" ref="W67:W121" si="15">IF(U67=V67,1,0)</f>
         <v>1</v>
       </c>
       <c r="X67" s="16">
-        <f t="shared" ref="X67:X121" si="11">U67-V67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24">
+        <f t="shared" ref="X67:X121" si="16">U67-V67</f>
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" ref="Z67:Z121" si="17">COUNTIF(D67:P67,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" ref="AA67:AA121" si="18">COUNTIF(D67:P67,1)</f>
+        <v>5</v>
+      </c>
+      <c r="AB67">
+        <f t="shared" ref="AB67:AB121" si="19">COUNTIF(D67:P67,2)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68" s="4">
         <v>66</v>
       </c>
@@ -88105,32 +90048,48 @@
       <c r="Q68" s="11">
         <v>0</v>
       </c>
+      <c r="R68" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S68" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.80769230769230771</v>
       </c>
       <c r="T68" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X68" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69" s="4">
         <v>67</v>
       </c>
@@ -88184,32 +90143,48 @@
       <c r="Q69" s="11">
         <v>0</v>
       </c>
+      <c r="R69" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S69" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T69" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X69" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70" s="4">
         <v>68</v>
       </c>
@@ -88263,32 +90238,48 @@
       <c r="Q70" s="11">
         <v>0</v>
       </c>
+      <c r="R70" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S70" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T70" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X70" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71" s="4">
         <v>69</v>
       </c>
@@ -88342,32 +90333,48 @@
       <c r="Q71" s="11">
         <v>1.3076923076923077</v>
       </c>
+      <c r="R71" s="13">
+        <f t="shared" si="10"/>
+        <v>0.63042517195611525</v>
+      </c>
       <c r="S71" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.65384615384615385</v>
       </c>
       <c r="T71" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="W71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X71" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="AB71">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72" s="4">
         <v>70</v>
       </c>
@@ -88421,32 +90428,48 @@
       <c r="Q72" s="11">
         <v>1.0769230769230769</v>
       </c>
+      <c r="R72" s="13">
+        <f t="shared" si="10"/>
+        <v>0.49354811679282456</v>
+      </c>
       <c r="S72" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.1923076923076923</v>
       </c>
       <c r="T72" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="U72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="W72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X72" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AA72">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="AB72">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73" s="4">
         <v>71</v>
       </c>
@@ -88500,32 +90523,48 @@
       <c r="Q73" s="11">
         <v>0.30769230769230771</v>
       </c>
+      <c r="R73" s="13">
+        <f t="shared" si="10"/>
+        <v>0.48038446141526137</v>
+      </c>
       <c r="S73" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.69230769230769229</v>
       </c>
       <c r="T73" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="U73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X73" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="AA73">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AB73">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74" s="4">
         <v>72</v>
       </c>
@@ -88579,32 +90618,48 @@
       <c r="Q74" s="11">
         <v>0</v>
       </c>
+      <c r="R74" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S74" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.15384615384615385</v>
       </c>
       <c r="T74" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X74" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="AA74">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
       <c r="A75" s="4">
         <v>73</v>
       </c>
@@ -88658,32 +90713,48 @@
       <c r="Q75" s="11">
         <v>1.9230769230769231</v>
       </c>
+      <c r="R75" s="13">
+        <f t="shared" si="10"/>
+        <v>0.27735009811261407</v>
+      </c>
       <c r="S75" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.96153846153846156</v>
       </c>
       <c r="T75" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="V75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="W75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X75" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AB75">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
       <c r="A76" s="4">
         <v>74</v>
       </c>
@@ -88737,32 +90808,48 @@
       <c r="Q76" s="11">
         <v>1.9230769230769231</v>
       </c>
+      <c r="R76" s="13">
+        <f t="shared" si="10"/>
+        <v>0.27735009811261407</v>
+      </c>
       <c r="S76" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.9230769230769231</v>
       </c>
       <c r="T76" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="U76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="V76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="W76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X76" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AB76">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
       <c r="A77" s="4">
         <v>75</v>
       </c>
@@ -88816,32 +90903,48 @@
       <c r="Q77" s="11">
         <v>1.8461538461538463</v>
       </c>
+      <c r="R77" s="13">
+        <f t="shared" si="10"/>
+        <v>0.37553380809940551</v>
+      </c>
       <c r="S77" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.8846153846153846</v>
       </c>
       <c r="T77" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="U77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="V77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="W77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X77" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AB77">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
       <c r="A78" s="4">
         <v>76</v>
       </c>
@@ -88895,32 +90998,48 @@
       <c r="Q78" s="11">
         <v>0.92307692307692313</v>
       </c>
+      <c r="R78" s="13">
+        <f t="shared" si="10"/>
+        <v>0.49354811679282456</v>
+      </c>
       <c r="S78" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.3846153846153846</v>
       </c>
       <c r="T78" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="U78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="W78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X78" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AA78">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="AB78">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79" s="4">
         <v>77</v>
       </c>
@@ -88974,32 +91093,48 @@
       <c r="Q79" s="11">
         <v>7.6923076923076927E-2</v>
       </c>
+      <c r="R79" s="13">
+        <f t="shared" si="10"/>
+        <v>0.27735009811261457</v>
+      </c>
       <c r="S79" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="T79" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X79" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="AA79">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AB79">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80" s="4">
         <v>78</v>
       </c>
@@ -89053,32 +91188,48 @@
       <c r="Q80" s="11">
         <v>0</v>
       </c>
+      <c r="R80" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S80" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="T80" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X80" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="AA80">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81" s="4">
         <v>79</v>
       </c>
@@ -89132,32 +91283,48 @@
       <c r="Q81" s="11">
         <v>1.3846153846153846</v>
       </c>
+      <c r="R81" s="13">
+        <f t="shared" si="10"/>
+        <v>0.50636968354183332</v>
+      </c>
       <c r="S81" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.69230769230769229</v>
       </c>
       <c r="T81" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="W81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X81" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="AB81">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82" s="4">
         <v>80</v>
       </c>
@@ -89211,32 +91378,48 @@
       <c r="Q82" s="11">
         <v>0.15384615384615385</v>
       </c>
+      <c r="R82" s="13">
+        <f t="shared" si="10"/>
+        <v>0.3755338080994054</v>
+      </c>
       <c r="S82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.76923076923076927</v>
       </c>
       <c r="T82" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X82" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="AA82">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AB82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83" s="4">
         <v>81</v>
       </c>
@@ -89290,32 +91473,48 @@
       <c r="Q83" s="11">
         <v>0</v>
       </c>
+      <c r="R83" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="T83" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X83" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="AA83">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84" s="4">
         <v>82</v>
       </c>
@@ -89369,32 +91568,48 @@
       <c r="Q84" s="11">
         <v>1.7142857142857142</v>
       </c>
+      <c r="R84" s="13">
+        <f t="shared" si="10"/>
+        <v>0.63042517195611503</v>
+      </c>
       <c r="S84" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.84615384615384615</v>
       </c>
       <c r="T84" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="V84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="W84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X84" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AA84">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AB84">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85" s="4">
         <v>83</v>
       </c>
@@ -89448,32 +91663,48 @@
       <c r="Q85" s="11">
         <v>1.2</v>
       </c>
+      <c r="R85" s="13">
+        <f t="shared" si="10"/>
+        <v>0.64051261522034852</v>
+      </c>
       <c r="S85" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.3846153846153846</v>
       </c>
       <c r="T85" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="U85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="W85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X85" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AA85">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="AB85">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86" s="4">
         <v>84</v>
       </c>
@@ -89527,32 +91758,48 @@
       <c r="Q86" s="11">
         <v>0.14285714285714285</v>
       </c>
+      <c r="R86" s="13">
+        <f t="shared" si="10"/>
+        <v>0.3755338080994054</v>
+      </c>
       <c r="S86" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.61538461538461542</v>
       </c>
       <c r="T86" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X86" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="AA86">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AB86">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87" s="4">
         <v>85</v>
       </c>
@@ -89606,32 +91853,48 @@
       <c r="Q87" s="11">
         <v>0</v>
       </c>
+      <c r="R87" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S87" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="T87" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X87" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="AA87">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
       <c r="A88" s="4">
         <v>86</v>
       </c>
@@ -89685,32 +91948,48 @@
       <c r="Q88" s="11">
         <v>7.6923076923076927E-2</v>
       </c>
+      <c r="R88" s="13">
+        <f t="shared" si="10"/>
+        <v>0.27735009811261457</v>
+      </c>
       <c r="S88" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="T88" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X88" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="AA88">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AB88">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
       <c r="A89" s="4">
         <v>87</v>
       </c>
@@ -89764,32 +92043,48 @@
       <c r="Q89" s="11">
         <v>2</v>
       </c>
+      <c r="R89" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S89" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.0384615384615385</v>
       </c>
       <c r="T89" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="U89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="V89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="W89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X89" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
       <c r="A90" s="4">
         <v>88</v>
       </c>
@@ -89843,32 +92138,48 @@
       <c r="Q90" s="11">
         <v>1.3571428571428572</v>
       </c>
+      <c r="R90" s="13">
+        <f t="shared" si="10"/>
+        <v>0.48038446141526148</v>
+      </c>
       <c r="S90" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.6538461538461537</v>
       </c>
       <c r="T90" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="U90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="W90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X90" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="AB90">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
       <c r="A91" s="4">
         <v>89</v>
       </c>
@@ -89922,32 +92233,48 @@
       <c r="Q91" s="11">
         <v>7.6923076923076927E-2</v>
       </c>
+      <c r="R91" s="13">
+        <f t="shared" si="10"/>
+        <v>0.27735009811261457</v>
+      </c>
       <c r="S91" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.69230769230769229</v>
       </c>
       <c r="T91" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X91" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="AA91">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AB91">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92" s="4">
         <v>90</v>
       </c>
@@ -90001,32 +92328,48 @@
       <c r="Q92" s="11">
         <v>0</v>
       </c>
+      <c r="R92" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S92" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="T92" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X92" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="AA92">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
       <c r="A93" s="4">
         <v>91</v>
       </c>
@@ -90080,32 +92423,48 @@
       <c r="Q93" s="11">
         <v>0</v>
       </c>
+      <c r="R93" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S93" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T93" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X93" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="AA93">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
       <c r="A94" s="4">
         <v>92</v>
       </c>
@@ -90159,32 +92518,48 @@
       <c r="Q94" s="11">
         <v>1.2307692307692308</v>
       </c>
+      <c r="R94" s="13">
+        <f t="shared" si="10"/>
+        <v>0.72501105208198413</v>
+      </c>
       <c r="S94" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.61538461538461542</v>
       </c>
       <c r="T94" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="W94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X94" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="95" spans="1:24">
+      <c r="Z94">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AA94">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="AB94">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
       <c r="A95" s="4">
         <v>93</v>
       </c>
@@ -90238,32 +92613,48 @@
       <c r="Q95" s="11">
         <v>0.15384615384615385</v>
       </c>
+      <c r="R95" s="13">
+        <f t="shared" si="10"/>
+        <v>0.55470019622522915</v>
+      </c>
       <c r="S95" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.69230769230769229</v>
       </c>
       <c r="T95" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X95" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="AA95">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB95">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
       <c r="A96" s="4">
         <v>94</v>
       </c>
@@ -90317,32 +92708,48 @@
       <c r="Q96" s="11">
         <v>0.76923076923076927</v>
       </c>
+      <c r="R96" s="13">
+        <f t="shared" si="10"/>
+        <v>0.4385290096535146</v>
+      </c>
       <c r="S96" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.46153846153846156</v>
       </c>
       <c r="T96" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="W96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X96" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AA96">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="AB96">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
       <c r="A97" s="4">
         <v>95</v>
       </c>
@@ -90396,32 +92803,48 @@
       <c r="Q97" s="11">
         <v>1.9285714285714286</v>
       </c>
+      <c r="R97" s="13">
+        <f t="shared" si="10"/>
+        <v>0.27735009811261407</v>
+      </c>
       <c r="S97" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.3461538461538463</v>
       </c>
       <c r="T97" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="U97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="V97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="W97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X97" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AB97">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28">
       <c r="A98" s="4">
         <v>96</v>
       </c>
@@ -90475,32 +92898,48 @@
       <c r="Q98" s="11">
         <v>0</v>
       </c>
+      <c r="R98" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S98" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.96153846153846156</v>
       </c>
       <c r="T98" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X98" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="AA98">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB98">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28">
       <c r="A99" s="4">
         <v>97</v>
       </c>
@@ -90554,32 +92993,48 @@
       <c r="Q99" s="11">
         <v>7.6923076923076927E-2</v>
       </c>
+      <c r="R99" s="13">
+        <f t="shared" si="10"/>
+        <v>0.27735009811261457</v>
+      </c>
       <c r="S99" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="T99" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X99" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="AA99">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AB99">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28">
       <c r="A100" s="4">
         <v>98</v>
       </c>
@@ -90633,32 +93088,48 @@
       <c r="Q100" s="11">
         <v>1.5333333333333334</v>
       </c>
+      <c r="R100" s="13">
+        <f t="shared" si="10"/>
+        <v>0.66022529177352474</v>
+      </c>
       <c r="S100" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.76923076923076927</v>
       </c>
       <c r="T100" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="W100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X100" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="101" spans="1:24">
+      <c r="Z100">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AA100">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="AB100">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28">
       <c r="A101" s="4">
         <v>99</v>
       </c>
@@ -90712,32 +93183,48 @@
       <c r="Q101" s="11">
         <v>7.6923076923076927E-2</v>
       </c>
+      <c r="R101" s="13">
+        <f t="shared" si="10"/>
+        <v>0.27735009811261457</v>
+      </c>
       <c r="S101" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.76923076923076927</v>
       </c>
       <c r="T101" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X101" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z101">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="AA101">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AB101">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28">
       <c r="A102" s="4">
         <v>100</v>
       </c>
@@ -90791,32 +93278,48 @@
       <c r="Q102" s="11">
         <v>0</v>
       </c>
+      <c r="R102" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S102" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="T102" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X102" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z102">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="AA102">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB102">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28">
       <c r="A103" s="4">
         <v>101</v>
       </c>
@@ -90870,32 +93373,48 @@
       <c r="Q103" s="11">
         <v>1.0714285714285714</v>
       </c>
+      <c r="R103" s="13">
+        <f t="shared" si="10"/>
+        <v>0.57735026918962573</v>
+      </c>
       <c r="S103" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="T103" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="W103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X103" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z103">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AA103">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="AB103">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28">
       <c r="A104" s="4">
         <v>102</v>
       </c>
@@ -90949,32 +93468,48 @@
       <c r="Q104" s="11">
         <v>1.2142857142857142</v>
       </c>
+      <c r="R104" s="13">
+        <f t="shared" si="10"/>
+        <v>0.68873723172119461</v>
+      </c>
       <c r="S104" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.0769230769230769</v>
       </c>
       <c r="T104" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="U104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="W104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X104" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AA104">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="AB104">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28">
       <c r="A105" s="4">
         <v>103</v>
       </c>
@@ -91028,32 +93563,48 @@
       <c r="Q105" s="11">
         <v>1.1333333333333333</v>
       </c>
+      <c r="R105" s="13">
+        <f t="shared" si="10"/>
+        <v>0.55470019622522915</v>
+      </c>
       <c r="S105" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.1538461538461537</v>
       </c>
       <c r="T105" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="U105">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="W105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X105" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z105">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AA105">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="AB105">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28">
       <c r="A106" s="4">
         <v>104</v>
       </c>
@@ -91107,32 +93658,48 @@
       <c r="Q106" s="11">
         <v>1.0769230769230769</v>
       </c>
+      <c r="R106" s="13">
+        <f t="shared" si="10"/>
+        <v>0.49354811679282456</v>
+      </c>
       <c r="S106" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.1153846153846154</v>
       </c>
       <c r="T106" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="U106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="W106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X106" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AA106">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="AB106">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28">
       <c r="A107" s="4">
         <v>105</v>
       </c>
@@ -91186,32 +93753,48 @@
       <c r="Q107" s="11">
         <v>7.6923076923076927E-2</v>
       </c>
+      <c r="R107" s="13">
+        <f t="shared" si="10"/>
+        <v>0.27735009811261457</v>
+      </c>
       <c r="S107" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.57692307692307687</v>
       </c>
       <c r="T107" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X107" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="AA107">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AB107">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28">
       <c r="A108" s="4">
         <v>106</v>
       </c>
@@ -91265,32 +93848,48 @@
       <c r="Q108" s="11">
         <v>0</v>
       </c>
+      <c r="R108" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S108" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="T108" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X108" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="AA108">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB108">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28">
       <c r="A109" s="4">
         <v>107</v>
       </c>
@@ -91344,32 +93943,48 @@
       <c r="Q109" s="11">
         <v>0</v>
       </c>
+      <c r="R109" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S109" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T109" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U109">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W109">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X109" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z109">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="AA109">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB109">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28">
       <c r="A110" s="4">
         <v>108</v>
       </c>
@@ -91423,32 +94038,48 @@
       <c r="Q110" s="11">
         <v>0.21428571428571427</v>
       </c>
+      <c r="R110" s="13">
+        <f t="shared" si="10"/>
+        <v>0.3755338080994054</v>
+      </c>
       <c r="S110" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="T110" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W110">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X110" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="AA110">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AB110">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28">
       <c r="A111" s="4">
         <v>109</v>
       </c>
@@ -91502,32 +94133,48 @@
       <c r="Q111" s="11">
         <v>1.1428571428571428</v>
       </c>
+      <c r="R111" s="13">
+        <f t="shared" si="10"/>
+        <v>0.64051261522034852</v>
+      </c>
       <c r="S111" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.61538461538461542</v>
       </c>
       <c r="T111" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U111">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V111">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="W111">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X111" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="112" spans="1:24">
+      <c r="Z111">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AA111">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="AB111">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28">
       <c r="A112" s="4">
         <v>110</v>
       </c>
@@ -91581,32 +94228,48 @@
       <c r="Q112" s="11">
         <v>1.8461538461538463</v>
       </c>
+      <c r="R112" s="13">
+        <f t="shared" si="10"/>
+        <v>0.37553380809940551</v>
+      </c>
       <c r="S112" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.4615384615384615</v>
       </c>
       <c r="T112" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="U112">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="V112">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="W112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X112" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AB112">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28">
       <c r="A113" s="4">
         <v>111</v>
       </c>
@@ -91660,32 +94323,48 @@
       <c r="Q113" s="11">
         <v>1</v>
       </c>
+      <c r="R113" s="13">
+        <f t="shared" si="10"/>
+        <v>0.5188745216627707</v>
+      </c>
       <c r="S113" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.4038461538461537</v>
       </c>
       <c r="T113" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="U113">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V113">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="W113">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X113" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AA113">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="AB113">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28">
       <c r="A114" s="4">
         <v>112</v>
       </c>
@@ -91739,32 +94418,48 @@
       <c r="Q114" s="11">
         <v>7.1428571428571425E-2</v>
       </c>
+      <c r="R114" s="13">
+        <f t="shared" si="10"/>
+        <v>0.27735009811261457</v>
+      </c>
       <c r="S114" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.51923076923076927</v>
       </c>
       <c r="T114" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W114">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X114" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="AA114">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AB114">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28">
       <c r="A115" s="4">
         <v>113</v>
       </c>
@@ -91818,32 +94513,48 @@
       <c r="Q115" s="11">
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="R115" s="13">
+        <f t="shared" si="10"/>
+        <v>0.27735009811261457</v>
+      </c>
       <c r="S115" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="T115" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U115">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V115">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W115">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X115" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="AA115">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AB115">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28">
       <c r="A116" s="4">
         <v>114</v>
       </c>
@@ -91897,32 +94608,48 @@
       <c r="Q116" s="11">
         <v>7.6923076923076927E-2</v>
       </c>
+      <c r="R116" s="13">
+        <f t="shared" si="10"/>
+        <v>0.27735009811261457</v>
+      </c>
       <c r="S116" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="T116" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V116">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W116">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X116" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="AA116">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AB116">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28">
       <c r="A117" s="4">
         <v>115</v>
       </c>
@@ -91976,32 +94703,48 @@
       <c r="Q117" s="11">
         <v>0.76923076923076927</v>
       </c>
+      <c r="R117" s="13">
+        <f t="shared" si="10"/>
+        <v>0.59914468951527811</v>
+      </c>
       <c r="S117" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.42307692307692307</v>
       </c>
       <c r="T117" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V117">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="W117">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X117" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="AA117">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="AB117">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28">
       <c r="A118" s="4">
         <v>116</v>
       </c>
@@ -92055,32 +94798,48 @@
       <c r="Q118" s="11">
         <v>7.1428571428571425E-2</v>
       </c>
+      <c r="R118" s="13">
+        <f t="shared" si="10"/>
+        <v>0.27735009811261457</v>
+      </c>
       <c r="S118" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.42307692307692307</v>
       </c>
       <c r="T118" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V118">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X118" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="AA118">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AB118">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28">
       <c r="A119" s="4">
         <v>117</v>
       </c>
@@ -92134,32 +94893,48 @@
       <c r="Q119" s="11">
         <v>0</v>
       </c>
+      <c r="R119" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S119" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="T119" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V119">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W119">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X119" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z119">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="AA119">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB119">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28">
       <c r="A120" s="4">
         <v>118</v>
       </c>
@@ -92213,32 +94988,48 @@
       <c r="Q120" s="11">
         <v>0.92307692307692313</v>
       </c>
+      <c r="R120" s="13">
+        <f t="shared" si="10"/>
+        <v>0.64051261522034852</v>
+      </c>
       <c r="S120" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.46153846153846156</v>
       </c>
       <c r="T120" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="W120">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X120" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:24" ht="16" thickBot="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z120">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AA120">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="AB120">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" ht="16" thickBot="1">
       <c r="A121" s="4">
         <v>119</v>
       </c>
@@ -92292,32 +95083,48 @@
       <c r="Q121" s="11">
         <v>1.9230769230769231</v>
       </c>
+      <c r="R121" s="13">
+        <f t="shared" si="10"/>
+        <v>0.27735009811261407</v>
+      </c>
       <c r="S121" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.4230769230769231</v>
       </c>
       <c r="T121" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="U121">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="V121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="W121">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X121" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:24" ht="16" thickTop="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AB121">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" ht="16" thickTop="1">
       <c r="A122" s="7" t="s">
         <v>1732</v>
       </c>
@@ -92365,6 +95172,10 @@
       <c r="Q122" s="12">
         <v>0.64512119328775641</v>
       </c>
+      <c r="R122" s="13">
+        <f t="shared" si="10"/>
+        <v>0.15088666776934007</v>
+      </c>
       <c r="S122" s="13">
         <f>AVERAGE(S2:S121)</f>
         <v>0.64166666666666705</v>
@@ -92374,11 +95185,11 @@
         <v>0.44166666666666665</v>
       </c>
       <c r="U122" s="13">
-        <f t="shared" ref="U122:V122" si="12">AVERAGE(U2:U121)</f>
+        <f t="shared" ref="U122:V122" si="20">AVERAGE(U2:U121)</f>
         <v>0.6166666666666667</v>
       </c>
       <c r="V122" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.64166666666666672</v>
       </c>
       <c r="W122" s="13">
@@ -92389,6 +95200,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
